--- a/new-invoice-frontend/main/src/assets/files/importvendor.xlsx
+++ b/new-invoice-frontend/main/src/assets/files/importvendor.xlsx
@@ -570,7 +570,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
